--- a/Document/스탠딩 이미지 표정.xlsx
+++ b/Document/스탠딩 이미지 표정.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t xml:space="preserve">스탠딩 이미지 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,7 +114,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결의, 다짐</t>
+    <t>은하야! 이제 리리스와 싸우기에 충분한 힘이 모인것 같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 아직 조금더 영향력을 모을 시간이 있을것 같으니 조금더 힘을 모아도 좋아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워 지팡아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 할지 결정된다면 미션을 선택해줘!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야! 이제 더 이상 영향력을 못 모을것같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 영향력을 다 찾은거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쉽게도 아니야 은하야~… 리리스는 부하를 부리기 때문에 점점 우리가 밀리게 될거야~ㅠ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,7 +146,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>너에겐 이루고 싶은 꿈이 있잖아! 여기서 멈출거야?.....</t>
+    <t>하지만 그렇게 되기전에 우리가 먼저 힘을 모아 공격한다면 충분히 승산이 있어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금의 나로….이길수 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음, 자신감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부끄러움, 당황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신이 생각하는 이미지를 생각하며 싸우면 좀더 좋을거야!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -131,23 +174,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>….아니!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래! 여기에 있는동안 에도 리리스 는 영향력을 차지하고 있어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 포탈을 열테니 어서 움직이자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응!</t>
+    <t>어? 그리고 보니 내 모습을 본적이 없내 내 모습이…윽![옷을보고 부끄러워함]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라? 잘 모르는 거야? 은하가 어릴때 본 마법소ㄴ…….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아아아아아아ㅏ앙! 알겠어! 거기까지만 해도돼! 어서가자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자신감 없음, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,6 +426,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,12 +439,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -428,13 +467,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>599844</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>113974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -466,13 +505,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>533170</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>180654</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -503,19 +542,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>561743</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>66415</xdr:rowOff>
+      <xdr:colOff>580788</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152089</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -528,8 +567,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523875" y="9953625"/>
-          <a:ext cx="1857143" cy="2076190"/>
+          <a:off x="504825" y="13058775"/>
+          <a:ext cx="1895238" cy="2485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485561</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="6267450"/>
+          <a:ext cx="1714286" cy="2657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>126683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19535776"/>
+          <a:ext cx="1800225" cy="2374582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -804,224 +919,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B11:H58"/>
+  <dimension ref="B2:H80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H18" sqref="H18:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="83.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+    <row r="2" spans="2:8" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
+    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="F11" s="11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="11">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
-      <c r="F15" s="14">
-        <v>2</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
-      <c r="F16" s="14">
-        <v>3</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
-      <c r="F17" s="14">
-        <v>4</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
-      <c r="F18" s="14">
-        <v>5</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="F19" s="14">
-        <v>6</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
+    </row>
+    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="F22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
+      <c r="F23" s="11">
+        <v>3</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
+      <c r="F24" s="11">
+        <v>4</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="F28" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="16"/>
+      <c r="F25" s="11">
+        <v>5</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="F26" s="11">
+        <v>6</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="F29" s="14">
-        <v>10</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
-      <c r="F30" s="14">
-        <v>11</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
-      <c r="F31" s="14">
-        <v>1</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
-      <c r="F32" s="14">
-        <v>2</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
@@ -1033,181 +1188,366 @@
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+    <row r="35" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="F37" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="11">
+        <v>10</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
+      <c r="F39" s="11">
+        <v>11</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="F44" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="16"/>
+      <c r="F41" s="11">
+        <v>2</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="F43" s="11">
+        <v>1</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="F44" s="11">
+        <v>2</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="F45" s="14">
-        <v>19</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>24</v>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="F45" s="11">
+        <v>3</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
-      <c r="F46" s="14">
-        <v>20</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
-      <c r="F47" s="14">
-        <v>21</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
-      <c r="F48" s="14">
-        <v>22</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
-      <c r="F49" s="14">
-        <v>23</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
+    <row r="51" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="5"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
+      <c r="F55" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
+      <c r="F56" s="11">
+        <v>1</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
+      <c r="F57" s="11">
+        <v>2</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="F58" s="11">
+        <v>3</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="F59" s="11">
+        <v>4</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7"/>
+      <c r="F70" s="11">
+        <v>4</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="F71" s="11">
+        <v>5</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F44:G44"/>
+  <mergeCells count="9">
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F37:G37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
